--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt5a-Fzd4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt5a-Fzd4.xlsx
@@ -540,40 +540,40 @@
         <v>27.470878</v>
       </c>
       <c r="I2">
-        <v>0.969469463764299</v>
+        <v>0.9693716918425304</v>
       </c>
       <c r="J2">
-        <v>0.9694694637642989</v>
+        <v>0.9693716918425304</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>22.41709</v>
+        <v>26.532132</v>
       </c>
       <c r="N2">
-        <v>67.25127000000001</v>
+        <v>79.596396</v>
       </c>
       <c r="O2">
-        <v>0.3988455747018376</v>
+        <v>0.3960736634233649</v>
       </c>
       <c r="P2">
-        <v>0.3988455747018376</v>
+        <v>0.3960736634233648</v>
       </c>
       <c r="Q2">
-        <v>205.2723815016734</v>
+        <v>242.953653750632</v>
       </c>
       <c r="R2">
-        <v>1847.45143351506</v>
+        <v>2186.582883755688</v>
       </c>
       <c r="S2">
-        <v>0.3866686054309541</v>
+        <v>0.3839425972069762</v>
       </c>
       <c r="T2">
-        <v>0.3866686054309541</v>
+        <v>0.3839425972069761</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>27.470878</v>
       </c>
       <c r="I3">
-        <v>0.969469463764299</v>
+        <v>0.9693716918425304</v>
       </c>
       <c r="J3">
-        <v>0.9694694637642989</v>
+        <v>0.9693716918425304</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,10 +620,10 @@
         <v>50.345671</v>
       </c>
       <c r="O3">
-        <v>0.2985839238983091</v>
+        <v>0.2505213219764053</v>
       </c>
       <c r="P3">
-        <v>0.2985839238983091</v>
+        <v>0.2505213219764053</v>
       </c>
       <c r="Q3">
         <v>153.6710873187931</v>
@@ -632,10 +632,10 @@
         <v>1383.039785869138</v>
       </c>
       <c r="S3">
-        <v>0.289467996590334</v>
+        <v>0.2428482777268953</v>
       </c>
       <c r="T3">
-        <v>0.289467996590334</v>
+        <v>0.2428482777268953</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>27.470878</v>
       </c>
       <c r="I4">
-        <v>0.969469463764299</v>
+        <v>0.9693716918425304</v>
       </c>
       <c r="J4">
-        <v>0.9694694637642989</v>
+        <v>0.9693716918425304</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.00595566666667</v>
+        <v>23.67385</v>
       </c>
       <c r="N4">
-        <v>51.017867</v>
+        <v>71.02154999999999</v>
       </c>
       <c r="O4">
-        <v>0.3025705013998533</v>
+        <v>0.3534050146002298</v>
       </c>
       <c r="P4">
-        <v>0.3025705013998533</v>
+        <v>0.3534050146002298</v>
       </c>
       <c r="Q4">
-        <v>155.7228444641362</v>
+        <v>216.7804817134333</v>
       </c>
       <c r="R4">
-        <v>1401.505600177226</v>
+        <v>1951.0243354209</v>
       </c>
       <c r="S4">
-        <v>0.2933328617430108</v>
+        <v>0.3425808169086589</v>
       </c>
       <c r="T4">
-        <v>0.2933328617430108</v>
+        <v>0.3425808169086589</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,46 +720,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.288371</v>
+        <v>0.2893236666666667</v>
       </c>
       <c r="H5">
-        <v>0.865113</v>
+        <v>0.867971</v>
       </c>
       <c r="I5">
-        <v>0.03053053623570109</v>
+        <v>0.03062830815746963</v>
       </c>
       <c r="J5">
-        <v>0.03053053623570109</v>
+        <v>0.03062830815746962</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>22.41709</v>
+        <v>26.532132</v>
       </c>
       <c r="N5">
-        <v>67.25127000000001</v>
+        <v>79.596396</v>
       </c>
       <c r="O5">
-        <v>0.3988455747018376</v>
+        <v>0.3960736634233649</v>
       </c>
       <c r="P5">
-        <v>0.3988455747018376</v>
+        <v>0.3960736634233648</v>
       </c>
       <c r="Q5">
-        <v>6.46443866039</v>
+        <v>7.676373714724001</v>
       </c>
       <c r="R5">
-        <v>58.17994794351001</v>
+        <v>69.087363432516</v>
       </c>
       <c r="S5">
-        <v>0.01217696927088348</v>
+        <v>0.01213106621638873</v>
       </c>
       <c r="T5">
-        <v>0.01217696927088348</v>
+        <v>0.01213106621638872</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.288371</v>
+        <v>0.2893236666666667</v>
       </c>
       <c r="H6">
-        <v>0.865113</v>
+        <v>0.867971</v>
       </c>
       <c r="I6">
-        <v>0.03053053623570109</v>
+        <v>0.03062830815746963</v>
       </c>
       <c r="J6">
-        <v>0.03053053623570109</v>
+        <v>0.03062830815746962</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>50.345671</v>
       </c>
       <c r="O6">
-        <v>0.2985839238983091</v>
+        <v>0.2505213219764053</v>
       </c>
       <c r="P6">
-        <v>0.2985839238983091</v>
+        <v>0.2505213219764053</v>
       </c>
       <c r="Q6">
-        <v>4.839410497313667</v>
+        <v>4.855398044837889</v>
       </c>
       <c r="R6">
-        <v>43.55469447582301</v>
+        <v>43.698582403541</v>
       </c>
       <c r="S6">
-        <v>0.009115927307975141</v>
+        <v>0.007673044249510009</v>
       </c>
       <c r="T6">
-        <v>0.009115927307975143</v>
+        <v>0.007673044249510009</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.288371</v>
+        <v>0.2893236666666667</v>
       </c>
       <c r="H7">
-        <v>0.865113</v>
+        <v>0.867971</v>
       </c>
       <c r="I7">
-        <v>0.03053053623570109</v>
+        <v>0.03062830815746963</v>
       </c>
       <c r="J7">
-        <v>0.03053053623570109</v>
+        <v>0.03062830815746962</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.00595566666667</v>
+        <v>23.67385</v>
       </c>
       <c r="N7">
-        <v>51.017867</v>
+        <v>71.02154999999999</v>
       </c>
       <c r="O7">
-        <v>0.3025705013998533</v>
+        <v>0.3534050146002298</v>
       </c>
       <c r="P7">
-        <v>0.3025705013998533</v>
+        <v>0.3534050146002298</v>
       </c>
       <c r="Q7">
-        <v>4.904024441552333</v>
+        <v>6.849405086116667</v>
       </c>
       <c r="R7">
-        <v>44.136219973971</v>
+        <v>61.64464577504999</v>
       </c>
       <c r="S7">
-        <v>0.009237639656842466</v>
+        <v>0.01082419769157089</v>
       </c>
       <c r="T7">
-        <v>0.009237639656842466</v>
+        <v>0.01082419769157089</v>
       </c>
     </row>
   </sheetData>
